--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655191.5556939461</v>
+        <v>653303.974177544</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>310.527137013141</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>104.3225890499765</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.17579562641266</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.465802816548256</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>258.7935786421194</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>74.62372476861202</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>74.09260911231073</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>126.7664547002294</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>373.0019848145429</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>309.9377675688098</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>7.634490799661691</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>11.82150965373844</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6587113758125</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>69.27142932050921</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>197.6869830550276</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>92.05936778353005</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>54.90295310323244</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>44.00734609151971</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>204.1291651532051</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>11.72293225785201</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>169.827716759979</v>
       </c>
     </row>
     <row r="26">
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>73.95273020923005</v>
       </c>
       <c r="U28" t="n">
-        <v>233.2386581704144</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>21.40064155454476</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896552</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801201</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437409</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897897</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571484</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>54.76109577523581</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>86.18652692092481</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373725</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4150,7 +4150,7 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1683.321707331112</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="C2" t="n">
-        <v>1314.359190390701</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="D2" t="n">
-        <v>956.0934917839502</v>
+        <v>792.5160654321296</v>
       </c>
       <c r="E2" t="n">
-        <v>570.3052391857059</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>159.3193343960983</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.921547395234</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y2" t="n">
-        <v>2069.921547395234</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,10 +4407,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.45494510253</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>245.45494510253</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>245.45494510253</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>245.45494510253</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>98.56499760461966</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>98.56499760461966</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>98.56499760461966</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>726.6483753008299</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>726.6483753008299</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.45494510253</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1794.6828813766</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="C5" t="n">
-        <v>1425.720364436189</v>
+        <v>1855.790121687965</v>
       </c>
       <c r="D5" t="n">
-        <v>1067.454665829438</v>
+        <v>1497.524423081215</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1111.73617048297</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>700.7502656933627</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>282.7864575915496</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.6828813766</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.6828813766</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.5323736931987</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>286.5323736931987</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>286.5323736931987</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>286.5323736931987</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>286.5323736931987</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>286.5323736931987</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>128.7840011257288</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>570.6651411204305</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>570.6651411204305</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>570.6651411204305</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>570.6651411204305</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931987</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931987</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.5323736931987</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.680947310029</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.680947310029</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.680947310029</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916692</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X8" t="n">
-        <v>2035.589960916692</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y8" t="n">
-        <v>1645.450628940881</v>
+        <v>2267.209817970484</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4878,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4999,13 +4999,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>720.4173773380891</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>720.4173773380891</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>256.0479578003562</v>
+        <v>383.3526312522301</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>383.3526312522301</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>233.2359918398944</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>233.2359918398944</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655739</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286133</v>
+        <v>785.793675226</v>
       </c>
       <c r="X13" t="n">
-        <v>437.696422630596</v>
+        <v>785.793675226</v>
       </c>
       <c r="Y13" t="n">
-        <v>437.696422630596</v>
+        <v>565.0010960824699</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,46 +5261,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484.0375086983732</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>315.1013257704664</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>315.1013257704664</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>167.1882321880729</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247851</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383435</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X16" t="n">
-        <v>665.685973528613</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.685973528613</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5610,10 +5610,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.2581065529675</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2581065529675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,16 +5677,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1332.383638732624</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1077.699150526737</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>1077.699150526737</v>
+        <v>954.8146123150547</v>
       </c>
       <c r="X19" t="n">
-        <v>1077.699150526737</v>
+        <v>726.8250614170373</v>
       </c>
       <c r="Y19" t="n">
-        <v>856.9065713832073</v>
+        <v>506.0324822735072</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,67 +5735,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>310.6051391271016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>141.6689561991947</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>141.6689561991947</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765185</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706317</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706317</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>531.3977182706317</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>310.6051391271016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>403.8614782555914</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C25" t="n">
-        <v>403.8614782555914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227918</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W25" t="n">
-        <v>585.5099430858312</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X25" t="n">
-        <v>585.5099430858312</v>
+        <v>437.6964226305957</v>
       </c>
       <c r="Y25" t="n">
-        <v>585.5099430858312</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>881.753191430675</v>
+        <v>732.3583290631011</v>
       </c>
       <c r="C28" t="n">
-        <v>712.8170085027681</v>
+        <v>563.4221461351942</v>
       </c>
       <c r="D28" t="n">
-        <v>562.7003690904323</v>
+        <v>413.3055067228585</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1424.216543073832</v>
       </c>
       <c r="U28" t="n">
-        <v>1063.401656260915</v>
+        <v>1424.216543073832</v>
       </c>
       <c r="V28" t="n">
-        <v>1063.401656260915</v>
+        <v>1424.216543073832</v>
       </c>
       <c r="W28" t="n">
-        <v>1063.401656260915</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="X28" t="n">
-        <v>1063.401656260915</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y28" t="n">
-        <v>1063.401656260915</v>
+        <v>914.0067938933408</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6485,7 +6485,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215244</v>
+        <v>543.8032198520309</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749883</v>
+        <v>430.6279022054947</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440235</v>
+        <v>336.2721280745296</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430013</v>
+        <v>244.1198997735073</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864669</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933497</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667504</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
         <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1481.571032267145</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1282.64740934263</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1048.99110458704</v>
+        <v>902.6804289818923</v>
       </c>
       <c r="X31" t="n">
-        <v>876.7624189703932</v>
+        <v>730.4517433652456</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703932</v>
+        <v>565.4200295030862</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822458</v>
@@ -6698,13 +6698,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,19 +7108,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083215</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504522</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525404</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254961</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649697</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
         <v>1688.18649035013</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229672</v>
@@ -7552,7 +7552,7 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,19 +7564,19 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229571</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>155.4253114448894</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>10.76233664711879</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>76.14961870242203</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>54.45066026880045</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>87.77261239840725</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,16 +23944,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>231.3343992953449</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>102.4266165550495</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>136.8925407603603</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>48.75693659211578</v>
       </c>
     </row>
     <row r="26">
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>147.5948308491592</v>
       </c>
       <c r="U28" t="n">
-        <v>52.99869422816295</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>103.2280819988355</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>144.8475688490954</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.725286707953251e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>369468.7964389273</v>
+      </c>
+      <c r="C2" t="n">
         <v>369468.7964389274</v>
-      </c>
-      <c r="C2" t="n">
-        <v>369468.7964389272</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389272</v>
@@ -26323,31 +26323,31 @@
         <v>351926.1537639381</v>
       </c>
       <c r="F2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.153763938</v>
       </c>
       <c r="G2" t="n">
-        <v>351926.1537639381</v>
+        <v>351926.153763938</v>
       </c>
       <c r="H2" t="n">
-        <v>351926.1537639381</v>
+        <v>351926.153763938</v>
       </c>
       <c r="I2" t="n">
         <v>351926.1537639381</v>
       </c>
       <c r="J2" t="n">
-        <v>351926.153763938</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107428</v>
+        <v>366139.9236107426</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389281</v>
+        <v>369468.7964389282</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389279</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389283</v>
+        <v>369468.7964389282</v>
       </c>
       <c r="O2" t="n">
         <v>369468.7964389282</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086705</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338375</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26427,13 +26427,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26442,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563573</v>
+        <v>33210.29213563562</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275949</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26479,13 +26479,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-460133.1190902492</v>
+        <v>-460133.1190902493</v>
       </c>
       <c r="C6" t="n">
+        <v>129834.7601242953</v>
+      </c>
+      <c r="D6" t="n">
         <v>129834.7601242952</v>
       </c>
-      <c r="D6" t="n">
-        <v>129834.7601242951</v>
-      </c>
       <c r="E6" t="n">
-        <v>-280266.8782831138</v>
+        <v>-280364.337409086</v>
       </c>
       <c r="F6" t="n">
-        <v>244893.1581937822</v>
+        <v>244795.6990678102</v>
       </c>
       <c r="G6" t="n">
-        <v>244893.1581937823</v>
+        <v>244795.6990678098</v>
       </c>
       <c r="H6" t="n">
-        <v>244893.1581937823</v>
+        <v>244795.6990678101</v>
       </c>
       <c r="I6" t="n">
-        <v>244893.1581937823</v>
+        <v>244795.6990678101</v>
       </c>
       <c r="J6" t="n">
-        <v>68469.93900118933</v>
+        <v>68372.47987521728</v>
       </c>
       <c r="K6" t="n">
-        <v>192138.8176420388</v>
+        <v>192120.3239041042</v>
       </c>
       <c r="L6" t="n">
-        <v>223946.3269552761</v>
+        <v>223946.3269552763</v>
       </c>
       <c r="M6" t="n">
-        <v>99488.2185223057</v>
+        <v>99488.21852230509</v>
       </c>
       <c r="N6" t="n">
+        <v>234289.2337561435</v>
+      </c>
+      <c r="O6" t="n">
         <v>234289.2337561433</v>
       </c>
-      <c r="O6" t="n">
-        <v>234289.2337561432</v>
-      </c>
       <c r="P6" t="n">
-        <v>190126.6284532975</v>
+        <v>190126.6284532977</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26747,10 +26747,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26762,16 +26762,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.92863350108369</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,10 +26987,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>71.40323305912074</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>309.4615809708184</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>90.78982616592558</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>27.65694713836605</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>123.1367914301424</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>249.2990479957451</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>60.8730126800275</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>85.37908424978949</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.731856848937696</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>55.33512420219779</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>218.0751645893754</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33175,46 +33175,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,43 +33254,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,43 +33336,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,19 +36209,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734236</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,10 +37470,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
